--- a/2021-05-10-Oneday다이어트/양식샘플-테이블명세-양식.xlsx
+++ b/2021-05-10-Oneday다이어트/양식샘플-테이블명세-양식.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20325" windowHeight="10080" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="10080" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="식품정보" sheetId="2" r:id="rId1"/>
     <sheet name="제조사정보" sheetId="5" r:id="rId2"/>
     <sheet name="식품분류" sheetId="6" r:id="rId3"/>
     <sheet name="나의일일섭취" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
+    <sheet name="변수 식별자 설정" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="121">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -459,6 +459,58 @@
   </si>
   <si>
     <t>나의섭취정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 식품정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eat_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총내용량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단백질</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄수화물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총당류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제공량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일섭취</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +572,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -895,13 +947,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,7 +1115,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1022,7 +1127,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1369,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2038,7 +2155,9 @@
         <v>12</v>
       </c>
       <c r="I2" s="34"/>
-      <c r="J2" s="36"/>
+      <c r="J2" s="36">
+        <v>44326</v>
+      </c>
       <c r="K2" s="37"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
@@ -2631,7 +2750,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3299,8 +3418,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="34"/>
-      <c r="J2" s="40">
-        <f ca="1">TODAY()</f>
+      <c r="J2" s="36">
         <v>44326</v>
       </c>
       <c r="K2" s="37"/>
@@ -3809,7 +3927,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4477,8 +4595,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="34"/>
-      <c r="J2" s="40">
-        <f ca="1">TODAY()</f>
+      <c r="J2" s="36">
         <v>44326</v>
       </c>
       <c r="K2" s="37"/>
@@ -4984,8 +5101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5653,8 +5770,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="34"/>
-      <c r="J2" s="40">
-        <f ca="1">TODAY()</f>
+      <c r="J2" s="36">
         <v>44326</v>
       </c>
       <c r="K2" s="37"/>
@@ -5733,18 +5849,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>104</v>
@@ -5760,21 +5876,19 @@
       <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>100</v>
-      </c>
+      <c r="C7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
         <v>101</v>
@@ -5792,18 +5906,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -5814,10 +5930,18 @@
       <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -6150,12 +6274,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6166,13 +6290,330 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="I4" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="E7:G7"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>